--- a/inst/extdata/testDatamwsh.xlsx
+++ b/inst/extdata/testDatamwsh.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
   <si>
     <t>locus.y</t>
   </si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t>glutamic</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -232,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -581,58 +575,6 @@
       </left>
       <right style="medium">
         <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -648,7 +590,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,24 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1110,21 +1034,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="9" customWidth="1"/>
-    <col min="3" max="5" width="12.7109375" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="3" max="4" width="12.7109375" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -1134,12 +1058,11 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -1149,14 +1072,11 @@
       <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1166,12 +1086,11 @@
       <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1181,12 +1100,11 @@
       <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
@@ -1196,12 +1114,11 @@
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
@@ -1211,12 +1128,11 @@
       <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
@@ -1226,12 +1142,11 @@
       <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>20</v>
       </c>
@@ -1241,12 +1156,11 @@
       <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>21</v>
       </c>
@@ -1256,8 +1170,7 @@
       <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1269,258 +1182,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="9" customWidth="1"/>
-    <col min="8" max="23" width="9.140625" style="9"/>
-    <col min="24" max="24" width="15.7109375" style="9" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="16.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="9" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="9" customWidth="1"/>
+    <col min="7" max="22" width="9.140625" style="9"/>
+    <col min="23" max="23" width="15.7109375" style="9" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="51">
-        <v>2011</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="28">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="27"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
-      <c r="C5" s="28">
-        <v>2011</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="28">
-        <v>2011</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="D6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="26">
         <v>2</v>
       </c>
-      <c r="C7" s="28">
-        <v>2011</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="12" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="26">
         <v>2</v>
       </c>
-      <c r="C10" s="28">
-        <v>2011</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="49">
-        <v>2011</v>
+      <c r="C11" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1709,7 +1592,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E28:E29"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1830,9 +1713,7 @@
       <c r="A8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="B8" s="39"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40">
         <v>187.83</v>
